--- a/train_record/train_parameter_record.xlsx
+++ b/train_record/train_parameter_record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9952" windowHeight="9555"/>
+    <workbookView windowWidth="20752" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>轮次</t>
+  </si>
+  <si>
+    <t>方法</t>
   </si>
   <si>
     <t>学习率</t>
@@ -47,6 +50,12 @@
   </si>
   <si>
     <t>噪声偏移量</t>
+  </si>
+  <si>
+    <t>Lora</t>
+  </si>
+  <si>
+    <t>AdaLora</t>
   </si>
 </sst>
 </file>
@@ -980,19 +989,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="9.53097345132743"/>
-    <col min="5" max="5" width="9.53097345132743"/>
+    <col min="2" max="3" width="9.53097345132743"/>
+    <col min="6" max="6" width="9.53097345132743"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1011,44 +1020,76 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
         <v>0.0001</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>50</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>4</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>0.01</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
         <v>1e-5</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>50</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>8</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>0.01</v>
       </c>
-      <c r="F3">
+      <c r="G3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1e-5</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="G4">
         <v>0.1</v>
       </c>
     </row>
